--- a/Data Files/Website/DataFiles_CRM/Data_Login_NegativeTest.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_Login_NegativeTest.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18710" windowHeight="6840"/>
+    <workbookView windowWidth="18650" windowHeight="7110"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Error_Message</t>
   </si>
   <si>
-    <t>IWEIROWE</t>
+    <t>TRYSE</t>
   </si>
   <si>
     <t>Username hanya diperbolehkan huruf kecil</t>
@@ -34,7 +34,7 @@
     <t>Username tidak sesuai format</t>
   </si>
   <si>
-    <t>IWQDIQWJDIJQWIDJ</t>
+    <t>TRYSEREZZABIANTONG</t>
   </si>
   <si>
     <t>Username maksimal 15 karakter</t>
@@ -43,19 +43,25 @@
     <t>Username wajib diisi</t>
   </si>
   <si>
-    <t>A</t>
+    <t>T</t>
   </si>
   <si>
     <t>Kata sandi minimal 8 karakter</t>
   </si>
   <si>
-    <t>asdjashdjh</t>
+    <t>tryseeee</t>
   </si>
   <si>
     <t>Kata sandi harus ada huruf besar, huruf kecil, dan angka</t>
   </si>
   <si>
-    <t>AFASFAGS</t>
+    <t>TRYSEEEE</t>
+  </si>
+  <si>
+    <t>Tryse1234+</t>
+  </si>
+  <si>
+    <t>Kata sandi tidak sesuai format</t>
   </si>
   <si>
     <t>Kata Sandi wajib diisi</t>
@@ -64,7 +70,7 @@
     <t>tryse</t>
   </si>
   <si>
-    <t>Tryse123</t>
+    <t>Tryse1243</t>
   </si>
   <si>
     <t>Username atau kata sandi tidak sesuai</t>
@@ -78,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,29 +112,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,55 +145,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +196,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -220,31 +219,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,16 +468,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,17 +486,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -499,6 +502,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,21 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -550,20 +553,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,144 +587,156 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1032,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1046,59 +1072,62 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>12312312</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="6">
+        <v>12345678</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1106,40 +1135,48 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9">
-        <v>123123123</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>123456789</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/Data_Login_NegativeTest.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_Login_NegativeTest.xlsx
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -120,16 +120,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,6 +150,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -152,21 +166,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,85 +218,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,16 +468,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,17 +506,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,20 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,134 +587,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -734,6 +734,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1061,7 +1067,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1109,29 +1115,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3">
+      <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1139,7 +1149,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:3">
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1147,7 +1158,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
       <c r="B10">
         <v>123456789</v>
       </c>
@@ -1155,13 +1167,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3">
+      <c r="A11" s="7"/>
       <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
@@ -1172,7 +1185,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
